--- a/fuentes/contenidos/grado06/guion09/Escaleta MA_06_09_CO.xlsx
+++ b/fuentes/contenidos/grado06/guion09/Escaleta MA_06_09_CO.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateCount="2" iterateDelta="10" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -792,18 +792,12 @@
     <t xml:space="preserve">Revisar la explicación dado que en algunas de las diapositivas se utilizan palabras como podríais o decid. </t>
   </si>
   <si>
-    <t>Organiza en los números enteros</t>
-  </si>
-  <si>
     <t>Recurso M9B-01</t>
   </si>
   <si>
     <t>Indica la posición de números en la recta numérica</t>
   </si>
   <si>
-    <t>Actividad para indicar la posición y el orden de números ubicados en la recta numérica</t>
-  </si>
-  <si>
     <t>Indica la posición de números enteros en la recta numérica</t>
   </si>
   <si>
@@ -822,9 +816,6 @@
     <t>La representación de puntos en el plano</t>
   </si>
   <si>
-    <t>Interactivo que permite hacer un repaso de la ubicación de coordenadas en el plano cartesiano</t>
-  </si>
-  <si>
     <t>Practica la representación de puntos en el plano</t>
   </si>
   <si>
@@ -834,27 +825,15 @@
     <t>Cambiar la descripción del interactivo.</t>
   </si>
   <si>
-    <t>¿Qué coordenadas tiene el punto representado en el plano?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Proponer en la imagen un punto representado en el plano y en las respuestas las coordenadas del punto. </t>
   </si>
   <si>
     <t>Recurso M5A-01</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: La representación de puntos en el plano cartesiano</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar lo aprendido sobre la representación de puntos en el plano</t>
-  </si>
-  <si>
     <t>Recurso M101A-03</t>
   </si>
   <si>
-    <t>Interactivo que explica las comparaciones que se pueden dar entre números enteros</t>
-  </si>
-  <si>
     <t>RF</t>
   </si>
   <si>
@@ -867,18 +846,9 @@
     <t>RF_01_01_CO</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Orden en los números enteros</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar lo aprendido sobre números enteros</t>
-  </si>
-  <si>
     <t>Recurso M101A-04</t>
   </si>
   <si>
-    <t>Valor absoluto de números enteros</t>
-  </si>
-  <si>
     <t>Proponer números enteros para hallar el valor absoluto</t>
   </si>
   <si>
@@ -888,21 +858,12 @@
     <t>Proponer una situación en la cual se involucren números signados y la lectura del número.</t>
   </si>
   <si>
-    <t>Interactivo que ejemplifica como comparar números enteros con ayuda de la recta numérica</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cambiar la descripción y el título del recurso como se indica en la escaleta. </t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: La representación de los números enteros sobre la recta numérica</t>
-  </si>
-  <si>
     <t>Cambiar la descripción y el título del recurso como se indica en la escaleta. Revisar las fichas del docente y el estudiante.</t>
   </si>
   <si>
-    <t>Actividad para identificar las coordenadas de un punto representado en el plano cartesiano</t>
-  </si>
-  <si>
     <t>Plantear ejercicios sobre la representación de puntos en el plano cartesiano que involucren ubicación de puntos y reconocimiento de coordenadas.</t>
   </si>
   <si>
@@ -912,15 +873,6 @@
     <t>Proponer ejercicios y situaciones en las cuales se involucre el orden entre números enteros.</t>
   </si>
   <si>
-    <t>Actividad para hallar el valor absoluto de número enteros</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Valor absoluto de un número entero</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar lo aprendido sobre el valor absoluto de números enteros</t>
-  </si>
-  <si>
     <t>Plantear ejercicios sobre valor absoluto de números enteros.</t>
   </si>
   <si>
@@ -933,9 +885,6 @@
     <t xml:space="preserve">Interactivo que explica las operaciones con números enteros </t>
   </si>
   <si>
-    <t>Realiza adiciones con números enteros</t>
-  </si>
-  <si>
     <t>Actividad para practicar la adición de números enteros</t>
   </si>
   <si>
@@ -951,9 +900,6 @@
     <t xml:space="preserve">Practica la suma y la resta de números enteros </t>
   </si>
   <si>
-    <t>Halla la resta de los números enteros</t>
-  </si>
-  <si>
     <t>Actividad para practicar la sustracción de números enteros</t>
   </si>
   <si>
@@ -999,9 +945,6 @@
     <t>Recurso M5A-02</t>
   </si>
   <si>
-    <t>Operaciones: suma, resta, multiplicación y división</t>
-  </si>
-  <si>
     <t>Actividad para realizar operaciones con números enteros</t>
   </si>
   <si>
@@ -1017,18 +960,12 @@
     <t>RM_01_02_CO</t>
   </si>
   <si>
-    <t>Interactivo que explica aplicaciones de los polinomios aritméticos y ejercicios de práctica</t>
-  </si>
-  <si>
     <t>Proponer ejemplos de polinomios aritméticos y ejercicios de practica. Plantear aplicación de polinomios aritméticos y ejercicios de práctica.</t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje: Las operaciones con números enteros</t>
   </si>
   <si>
-    <t>Actividad para practicar las operaciones con números enteros</t>
-  </si>
-  <si>
     <t>Resuelve problemas que involucran operaciones con números enteros</t>
   </si>
   <si>
@@ -1038,9 +975,6 @@
     <t>Resuelve problemas de números enteros</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Resolución de problemas aplicando números enteros</t>
-  </si>
-  <si>
     <t>Recurso M101A-05</t>
   </si>
   <si>
@@ -1053,9 +987,6 @@
     <t>Competencias: operaciones combinadas con números enteros</t>
   </si>
   <si>
-    <t>Proyecto: Aplicación de los números enteros en contextos cotidianos</t>
-  </si>
-  <si>
     <t>Revisar las instrucciones de la actividad.</t>
   </si>
   <si>
@@ -1074,12 +1005,6 @@
     <t>Recurso M102AB-01</t>
   </si>
   <si>
-    <t>Banco de actividades: Los números enteros</t>
-  </si>
-  <si>
-    <t>Proyecto que involucra la comprensión de los números negativos en diferentes contextos</t>
-  </si>
-  <si>
     <t>Proponer situaciones problema y ejercicios sobre el tema Los números enteros.</t>
   </si>
   <si>
@@ -1089,9 +1014,6 @@
     <t>Explicar las operaciones a partir de la recta numérica o situaciones problema, proponer ejercicios de práctica.</t>
   </si>
   <si>
-    <t>Actividad para verificar la veracidad de afirmaciones hechas sobre adiciones y sustracciones de números enteros</t>
-  </si>
-  <si>
     <t>Actividad para practicar multiplicaciones y divisiones</t>
   </si>
   <si>
@@ -1101,30 +1023,12 @@
     <t>Ampliar la cantidad de problemas e involucrar situaciones que se resuelvan con multiplicaciones y divisiones, además revisar los problemas que involucran dinero. También cambiar el título y la descripción del motor.</t>
   </si>
   <si>
-    <t>Actividad para practicar la resolución de problemas que involucran operaciones con números enteros</t>
-  </si>
-  <si>
     <t>Proponer situaciones problema que se resuelven aplicando operaciones con números enteros.</t>
   </si>
   <si>
-    <t>Competencias: Operaciones combinadas con números enteros</t>
-  </si>
-  <si>
-    <t>Actividad para practicar las operaciones combinadas con números enteros en la solución de una situación problema</t>
-  </si>
-  <si>
     <t>Actividad para fijar números signados a situaciones problema</t>
   </si>
   <si>
-    <t>Actividad para organizar números enteros atendiendo a su ubicación en la recta numérica</t>
-  </si>
-  <si>
-    <t>Evalúa tus conocimientos sobre el tema: Los números enteros</t>
-  </si>
-  <si>
-    <t>Actividades para practicar lo visto sobre el tema: Los números enteros</t>
-  </si>
-  <si>
     <t>Plantear afirmaciones sobre adición de números enteros, por ejemplo, "la suma de dos números enteros positivos es positiva", para que el estudiante indique si son falsas o verdaderas.</t>
   </si>
   <si>
@@ -1135,9 +1039,6 @@
   </si>
   <si>
     <t xml:space="preserve">Proponer un proyecto que involucre números enteros u operaciones entre ellos. Se puede revisar el que aparece en el tema números enteros de 6 de primaria en aula planeta, sobre husos horarios, además tener en cuenta el derecho básico del aprendizaje número 6, para grado sexto. Construirlo en motor F13 (off line) con dos, cuatro u ocho pestañas </t>
-  </si>
-  <si>
-    <t>Actividad sobre la representación de los números enteros sobre la recta numérica</t>
   </si>
   <si>
     <t xml:space="preserve">Temas (sección 1)
@@ -1157,9 +1058,6 @@
   </si>
   <si>
     <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>Interactivo que muestra el concepto de número entero y algunas aplicaciones</t>
   </si>
   <si>
     <t>Refuerza tu aprendizaje El conjunto de los números enteros</t>
@@ -1179,14 +1077,614 @@
       <t>El conjunto de los números enteros</t>
     </r>
   </si>
+  <si>
+    <t>Organiza números enteros</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje El orden en los números enteros</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje La representación de puntos en el plano cartesiano</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje La representación de los números enteros sobre la recta numérica</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje El valor absoluto de un número entero</t>
+  </si>
+  <si>
+    <t>Resuelve adiciones entre números enteros</t>
+  </si>
+  <si>
+    <t>Halla la diferencia entre números enteros</t>
+  </si>
+  <si>
+    <t>Resuelve operaciones con números enteros</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje Las operaciones con números enteros</t>
+  </si>
+  <si>
+    <t>Proyecto: aplicación de los números enteros en contextos cotidianos</t>
+  </si>
+  <si>
+    <t>Banco de actividades</t>
+  </si>
+  <si>
+    <t>Interactivo que muestra el concepto de número entero</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interactivo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sobre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> la recta numérica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y los números enteros</t>
+    </r>
+  </si>
+  <si>
+    <t>Actividad para indicar la posición y el orden de números en la recta numérica</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad sobre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a representación de los números </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> la recta numérica</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interactivo que </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>explica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aspectos sobre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> el plano cartesiano</t>
+    </r>
+  </si>
+  <si>
+    <t>Determina las coordenadas de un punto en el plano</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de práctica sobre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> el plano cartesiano</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad sobre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a representación de puntos en el plano</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cartesiano</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interactivo que explica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>el orden en los</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> números enteros</t>
+    </r>
+  </si>
+  <si>
+    <t>Actividad para organizar números enteros</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad sobre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">El orden en los </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>números enteros</t>
+    </r>
+  </si>
+  <si>
+    <t>Determina el valor absoluto de un número entero</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad para hallar el valor absoluto de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>número entero</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad sobre </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l valor absoluto de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> un </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> número entero</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sobre adición y sustracción de números enteros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interactivo que explica </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>la solución de un</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> polinomi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> aritmético</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sobre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as operaciones con números enteros</t>
+    </r>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje La resolución de problemas aplicando números enteros</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sobre</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a resolución de problemas con números enteros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividad </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sobre operaciones con números enteros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actividad de</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> comprensión de números negativos en diferentes contextos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Evalúa sobre el tema</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Los números enteros</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividades </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sobre L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>os números enteros</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1464,9 +1962,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1477,8 +1975,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1487,178 +1985,181 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1974,8 +2475,8 @@
   <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:X190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1995,7 +2496,7 @@
     <col min="13" max="13" width="13.83203125" style="59" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" style="59" customWidth="1"/>
     <col min="15" max="15" width="29.33203125" style="59" customWidth="1"/>
-    <col min="16" max="16" width="3.5" style="59" customWidth="1"/>
+    <col min="16" max="16" width="14" style="59" customWidth="1"/>
     <col min="17" max="17" width="16.1640625" style="59" customWidth="1"/>
     <col min="18" max="18" width="16.6640625" style="59" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.6640625" style="59" bestFit="1" customWidth="1"/>
@@ -2005,96 +2506,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="31.5" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
-        <v>372</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>373</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="G1" s="68" t="s">
+      <c r="D1" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="78" t="s">
-        <v>375</v>
+      <c r="H1" s="76" t="s">
+        <v>342</v>
       </c>
       <c r="I1" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="69" t="s">
-        <v>376</v>
-      </c>
-      <c r="L1" s="68" t="s">
+      <c r="K1" s="67" t="s">
+        <v>343</v>
+      </c>
+      <c r="L1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="62" t="s">
+      <c r="N1" s="70"/>
+      <c r="O1" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="Q1" s="63" t="s">
+      <c r="Q1" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="80" t="s">
         <v>131</v>
       </c>
-      <c r="S1" s="63" t="s">
+      <c r="S1" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="U1" s="63" t="s">
+      <c r="U1" s="78" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="30.75" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="79"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="36" t="s">
         <v>135</v>
       </c>
       <c r="N2" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="78"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="37" t="s">
@@ -2120,8 +2621,8 @@
       <c r="I3" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="J3" s="80" t="s">
-        <v>378</v>
+      <c r="J3" s="81" t="s">
+        <v>358</v>
       </c>
       <c r="K3" s="44" t="s">
         <v>217</v>
@@ -2132,7 +2633,7 @@
       <c r="M3" s="45"/>
       <c r="N3" s="45"/>
       <c r="O3" s="46" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="P3" s="47" t="s">
         <v>217</v>
@@ -2240,7 +2741,7 @@
         <v>218</v>
       </c>
       <c r="J5" s="32" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="K5" s="44" t="s">
         <v>218</v>
@@ -2253,7 +2754,7 @@
         <v>142</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P5" s="54" t="s">
         <v>242</v>
@@ -2295,7 +2796,7 @@
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="52" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="H6" s="32">
         <v>4</v>
@@ -2303,8 +2804,8 @@
       <c r="I6" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J6" s="81" t="s">
-        <v>380</v>
+      <c r="J6" s="62" t="s">
+        <v>346</v>
       </c>
       <c r="K6" s="44" t="s">
         <v>218</v>
@@ -2365,8 +2866,8 @@
       <c r="I7" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="32" t="s">
-        <v>288</v>
+      <c r="J7" s="82" t="s">
+        <v>359</v>
       </c>
       <c r="K7" s="44" t="s">
         <v>217</v>
@@ -2417,7 +2918,7 @@
       <c r="E8" s="31"/>
       <c r="F8" s="51"/>
       <c r="G8" s="52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H8" s="32">
         <v>6</v>
@@ -2425,8 +2926,8 @@
       <c r="I8" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J8" s="32" t="s">
-        <v>259</v>
+      <c r="J8" s="82" t="s">
+        <v>360</v>
       </c>
       <c r="K8" s="44" t="s">
         <v>217</v>
@@ -2437,7 +2938,7 @@
       <c r="M8" s="45"/>
       <c r="N8" s="45"/>
       <c r="O8" s="46" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="P8" s="54" t="s">
         <v>218</v>
@@ -2452,7 +2953,7 @@
         <v>240</v>
       </c>
       <c r="T8" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="U8" s="48" t="s">
         <v>241</v>
@@ -2476,7 +2977,7 @@
       </c>
       <c r="F9" s="51"/>
       <c r="G9" s="52" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="H9" s="32">
         <v>7</v>
@@ -2484,8 +2985,8 @@
       <c r="I9" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J9" s="32" t="s">
-        <v>371</v>
+      <c r="J9" s="82" t="s">
+        <v>361</v>
       </c>
       <c r="K9" s="44" t="s">
         <v>218</v>
@@ -2498,7 +2999,7 @@
         <v>127</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P9" s="54" t="s">
         <v>242</v>
@@ -2513,7 +3014,7 @@
         <v>248</v>
       </c>
       <c r="T9" s="50" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="U9" s="48" t="s">
         <v>250</v>
@@ -2538,7 +3039,7 @@
       <c r="E10" s="31"/>
       <c r="F10" s="51"/>
       <c r="G10" s="52" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H10" s="32">
         <v>8</v>
@@ -2546,8 +3047,8 @@
       <c r="I10" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="J10" s="32" t="s">
-        <v>266</v>
+      <c r="J10" s="82" t="s">
+        <v>362</v>
       </c>
       <c r="K10" s="44" t="s">
         <v>217</v>
@@ -2558,7 +3059,7 @@
       <c r="M10" s="45"/>
       <c r="N10" s="45"/>
       <c r="O10" s="46" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="P10" s="54" t="s">
         <v>242</v>
@@ -2573,7 +3074,7 @@
         <v>240</v>
       </c>
       <c r="T10" s="50" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="U10" s="48" t="s">
         <v>241</v>
@@ -2598,7 +3099,7 @@
       <c r="E11" s="31"/>
       <c r="F11" s="51"/>
       <c r="G11" s="52" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H11" s="32">
         <v>9</v>
@@ -2607,7 +3108,7 @@
         <v>218</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K11" s="44" t="s">
         <v>217</v>
@@ -2618,7 +3119,7 @@
       <c r="M11" s="45"/>
       <c r="N11" s="45"/>
       <c r="O11" s="46" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P11" s="54" t="s">
         <v>242</v>
@@ -2633,7 +3134,7 @@
         <v>240</v>
       </c>
       <c r="T11" s="50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="U11" s="48" t="s">
         <v>241</v>
@@ -2655,7 +3156,7 @@
       <c r="E12" s="31"/>
       <c r="F12" s="51"/>
       <c r="G12" s="52" t="s">
-        <v>270</v>
+        <v>363</v>
       </c>
       <c r="H12" s="32">
         <v>10</v>
@@ -2663,8 +3164,8 @@
       <c r="I12" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="32" t="s">
-        <v>292</v>
+      <c r="J12" s="82" t="s">
+        <v>364</v>
       </c>
       <c r="K12" s="44" t="s">
         <v>218</v>
@@ -2677,7 +3178,7 @@
         <v>149</v>
       </c>
       <c r="O12" s="46" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P12" s="54" t="s">
         <v>242</v>
@@ -2692,7 +3193,7 @@
         <v>248</v>
       </c>
       <c r="T12" s="50" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="U12" s="48" t="s">
         <v>250</v>
@@ -2716,7 +3217,7 @@
       </c>
       <c r="F13" s="51"/>
       <c r="G13" s="52" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="H13" s="32">
         <v>11</v>
@@ -2724,8 +3225,8 @@
       <c r="I13" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J13" s="32" t="s">
-        <v>274</v>
+      <c r="J13" s="82" t="s">
+        <v>365</v>
       </c>
       <c r="K13" s="44" t="s">
         <v>218</v>
@@ -2738,7 +3239,7 @@
         <v>127</v>
       </c>
       <c r="O13" s="46" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="P13" s="54" t="s">
         <v>242</v>
@@ -2753,7 +3254,7 @@
         <v>248</v>
       </c>
       <c r="T13" s="50" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="U13" s="48" t="s">
         <v>250</v>
@@ -2783,8 +3284,8 @@
       <c r="I14" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="J14" s="32" t="s">
-        <v>276</v>
+      <c r="J14" s="82" t="s">
+        <v>366</v>
       </c>
       <c r="K14" s="44" t="s">
         <v>218</v>
@@ -2797,7 +3298,7 @@
       </c>
       <c r="N14" s="45"/>
       <c r="O14" s="46" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="P14" s="54" t="s">
         <v>242</v>
@@ -2806,16 +3307,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="49" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="S14" s="48" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="T14" s="50" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="U14" s="48" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="W14" s="34" t="s">
         <v>80</v>
@@ -2840,7 +3341,7 @@
       <c r="E15" s="31"/>
       <c r="F15" s="51"/>
       <c r="G15" s="52" t="s">
-        <v>256</v>
+        <v>347</v>
       </c>
       <c r="H15" s="32">
         <v>13</v>
@@ -2848,8 +3349,8 @@
       <c r="I15" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J15" s="32" t="s">
-        <v>364</v>
+      <c r="J15" s="82" t="s">
+        <v>367</v>
       </c>
       <c r="K15" s="44" t="s">
         <v>218</v>
@@ -2862,7 +3363,7 @@
         <v>114</v>
       </c>
       <c r="O15" s="46" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="P15" s="54" t="s">
         <v>242</v>
@@ -2877,7 +3378,7 @@
         <v>248</v>
       </c>
       <c r="T15" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="U15" s="48" t="s">
         <v>250</v>
@@ -2902,7 +3403,7 @@
       <c r="E16" s="31"/>
       <c r="F16" s="51"/>
       <c r="G16" s="52" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H16" s="32">
         <v>14</v>
@@ -2911,7 +3412,7 @@
         <v>218</v>
       </c>
       <c r="J16" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K16" s="44" t="s">
         <v>217</v>
@@ -2922,7 +3423,7 @@
       <c r="M16" s="45"/>
       <c r="N16" s="45"/>
       <c r="O16" s="46" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="P16" s="54" t="s">
         <v>242</v>
@@ -2937,7 +3438,7 @@
         <v>240</v>
       </c>
       <c r="T16" s="50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="U16" s="48" t="s">
         <v>241</v>
@@ -2961,7 +3462,7 @@
       </c>
       <c r="F17" s="51"/>
       <c r="G17" s="52" t="s">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="H17" s="32">
         <v>15</v>
@@ -2969,8 +3470,8 @@
       <c r="I17" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J17" s="32" t="s">
-        <v>282</v>
+      <c r="J17" s="82" t="s">
+        <v>368</v>
       </c>
       <c r="K17" s="44" t="s">
         <v>218</v>
@@ -2983,7 +3484,7 @@
         <v>127</v>
       </c>
       <c r="O17" s="46" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="P17" s="54" t="s">
         <v>242</v>
@@ -2998,7 +3499,7 @@
         <v>248</v>
       </c>
       <c r="T17" s="50" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="U17" s="48" t="s">
         <v>250</v>
@@ -3020,7 +3521,7 @@
       <c r="E18" s="31"/>
       <c r="F18" s="51"/>
       <c r="G18" s="52" t="s">
-        <v>284</v>
+        <v>369</v>
       </c>
       <c r="H18" s="32">
         <v>16</v>
@@ -3028,8 +3529,8 @@
       <c r="I18" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J18" s="32" t="s">
-        <v>296</v>
+      <c r="J18" s="82" t="s">
+        <v>370</v>
       </c>
       <c r="K18" s="44" t="s">
         <v>218</v>
@@ -3042,7 +3543,7 @@
         <v>141</v>
       </c>
       <c r="O18" s="46" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="P18" s="54" t="s">
         <v>242</v>
@@ -3057,7 +3558,7 @@
         <v>248</v>
       </c>
       <c r="T18" s="50" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="U18" s="48" t="s">
         <v>250</v>
@@ -3084,7 +3585,7 @@
       </c>
       <c r="F19" s="51"/>
       <c r="G19" s="52" t="s">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="H19" s="32">
         <v>17</v>
@@ -3092,8 +3593,8 @@
       <c r="I19" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J19" s="32" t="s">
-        <v>298</v>
+      <c r="J19" s="82" t="s">
+        <v>371</v>
       </c>
       <c r="K19" s="44" t="s">
         <v>218</v>
@@ -3106,7 +3607,7 @@
         <v>127</v>
       </c>
       <c r="O19" s="46" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="P19" s="54" t="s">
         <v>242</v>
@@ -3121,7 +3622,7 @@
         <v>248</v>
       </c>
       <c r="T19" s="50" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="U19" s="48" t="s">
         <v>250</v>
@@ -3146,7 +3647,7 @@
       <c r="E20" s="31"/>
       <c r="F20" s="51"/>
       <c r="G20" s="52" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="H20" s="32">
         <v>18</v>
@@ -3155,7 +3656,7 @@
         <v>242</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="K20" s="44" t="s">
         <v>218</v>
@@ -3168,7 +3669,7 @@
       </c>
       <c r="N20" s="45"/>
       <c r="O20" s="46" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="P20" s="54" t="s">
         <v>218</v>
@@ -3177,16 +3678,16 @@
         <v>6</v>
       </c>
       <c r="R20" s="49" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="S20" s="48" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="T20" s="50" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="U20" s="48" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -3207,7 +3708,7 @@
       </c>
       <c r="F21" s="51"/>
       <c r="G21" s="52" t="s">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="H21" s="32">
         <v>19</v>
@@ -3216,7 +3717,7 @@
         <v>218</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="K21" s="44" t="s">
         <v>218</v>
@@ -3229,7 +3730,7 @@
         <v>148</v>
       </c>
       <c r="O21" s="46" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="P21" s="54" t="s">
         <v>242</v>
@@ -3244,7 +3745,7 @@
         <v>248</v>
       </c>
       <c r="T21" s="50" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="U21" s="48" t="s">
         <v>250</v>
@@ -3268,7 +3769,7 @@
       </c>
       <c r="F22" s="51"/>
       <c r="G22" s="52" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="H22" s="32">
         <v>20</v>
@@ -3277,7 +3778,7 @@
         <v>218</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="K22" s="44" t="s">
         <v>218</v>
@@ -3290,7 +3791,7 @@
         <v>141</v>
       </c>
       <c r="O22" s="46" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="P22" s="54" t="s">
         <v>242</v>
@@ -3305,7 +3806,7 @@
         <v>248</v>
       </c>
       <c r="T22" s="50" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="U22" s="48" t="s">
         <v>250</v>
@@ -3329,7 +3830,7 @@
         <v>231</v>
       </c>
       <c r="G23" s="52" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="H23" s="32">
         <v>21</v>
@@ -3338,7 +3839,7 @@
         <v>218</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="K23" s="44" t="s">
         <v>217</v>
@@ -3349,7 +3850,7 @@
       <c r="M23" s="45"/>
       <c r="N23" s="45"/>
       <c r="O23" s="46" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="P23" s="54" t="s">
         <v>242</v>
@@ -3364,7 +3865,7 @@
         <v>240</v>
       </c>
       <c r="T23" s="50" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="U23" s="48" t="s">
         <v>241</v>
@@ -3386,7 +3887,7 @@
       <c r="E24" s="31"/>
       <c r="F24" s="56"/>
       <c r="G24" s="52" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="H24" s="32">
         <v>22</v>
@@ -3395,7 +3896,7 @@
         <v>218</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="K24" s="44" t="s">
         <v>217</v>
@@ -3406,7 +3907,7 @@
       <c r="M24" s="45"/>
       <c r="N24" s="45"/>
       <c r="O24" s="46" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="P24" s="54" t="s">
         <v>242</v>
@@ -3421,7 +3922,7 @@
         <v>240</v>
       </c>
       <c r="T24" s="50" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="U24" s="48" t="s">
         <v>241</v>
@@ -3443,7 +3944,7 @@
       <c r="E25" s="31"/>
       <c r="F25" s="51"/>
       <c r="G25" s="52" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="H25" s="32">
         <v>23</v>
@@ -3451,8 +3952,8 @@
       <c r="I25" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J25" s="32" t="s">
-        <v>355</v>
+      <c r="J25" s="82" t="s">
+        <v>372</v>
       </c>
       <c r="K25" s="44" t="s">
         <v>218</v>
@@ -3465,7 +3966,7 @@
         <v>145</v>
       </c>
       <c r="O25" s="46" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="P25" s="54" t="s">
         <v>242</v>
@@ -3480,7 +3981,7 @@
         <v>248</v>
       </c>
       <c r="T25" s="50" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="U25" s="48" t="s">
         <v>250</v>
@@ -3504,7 +4005,7 @@
       </c>
       <c r="F26" s="51"/>
       <c r="G26" s="52" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="H26" s="32">
         <v>24</v>
@@ -3513,7 +4014,7 @@
         <v>218</v>
       </c>
       <c r="J26" s="32" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K26" s="44" t="s">
         <v>218</v>
@@ -3526,7 +4027,7 @@
         <v>143</v>
       </c>
       <c r="O26" s="46" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="P26" s="54" t="s">
         <v>242</v>
@@ -3541,7 +4042,7 @@
         <v>248</v>
       </c>
       <c r="T26" s="50" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="U26" s="48" t="s">
         <v>250</v>
@@ -3565,7 +4066,7 @@
       </c>
       <c r="F27" s="51"/>
       <c r="G27" s="52" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="H27" s="32">
         <v>25</v>
@@ -3574,7 +4075,7 @@
         <v>218</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="K27" s="44" t="s">
         <v>218</v>
@@ -3587,7 +4088,7 @@
         <v>149</v>
       </c>
       <c r="O27" s="46" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="P27" s="54" t="s">
         <v>242</v>
@@ -3602,7 +4103,7 @@
         <v>248</v>
       </c>
       <c r="T27" s="50" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="U27" s="48" t="s">
         <v>250</v>
@@ -3624,7 +4125,7 @@
       <c r="E28" s="31"/>
       <c r="F28" s="51"/>
       <c r="G28" s="52" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="H28" s="32">
         <v>26</v>
@@ -3633,7 +4134,7 @@
         <v>218</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="K28" s="44" t="s">
         <v>218</v>
@@ -3646,7 +4147,7 @@
         <v>154</v>
       </c>
       <c r="O28" s="46" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="P28" s="54" t="s">
         <v>218</v>
@@ -3658,13 +4159,13 @@
         <v>247</v>
       </c>
       <c r="S28" s="48" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="T28" s="50" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="U28" s="48" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3693,8 +4194,8 @@
       <c r="I29" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="J29" s="32" t="s">
-        <v>331</v>
+      <c r="J29" s="82" t="s">
+        <v>373</v>
       </c>
       <c r="K29" s="44" t="s">
         <v>218</v>
@@ -3707,7 +4208,7 @@
       </c>
       <c r="N29" s="45"/>
       <c r="O29" s="46" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="P29" s="54" t="s">
         <v>242</v>
@@ -3716,16 +4217,16 @@
         <v>6</v>
       </c>
       <c r="R29" s="49" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="S29" s="48" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="T29" s="50" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="U29" s="48" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3746,7 +4247,7 @@
       </c>
       <c r="F30" s="51"/>
       <c r="G30" s="52" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="H30" s="32">
         <v>28</v>
@@ -3754,8 +4255,8 @@
       <c r="I30" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J30" s="32" t="s">
-        <v>334</v>
+      <c r="J30" s="82" t="s">
+        <v>374</v>
       </c>
       <c r="K30" s="44" t="s">
         <v>218</v>
@@ -3766,7 +4267,7 @@
       <c r="M30" s="45"/>
       <c r="N30" s="45"/>
       <c r="O30" s="46" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="P30" s="54" t="s">
         <v>242</v>
@@ -3781,7 +4282,7 @@
         <v>240</v>
       </c>
       <c r="T30" s="50" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="U30" s="48" t="s">
         <v>241</v>
@@ -3803,7 +4304,7 @@
       <c r="E31" s="57"/>
       <c r="F31" s="51"/>
       <c r="G31" s="52" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="H31" s="32">
         <v>29</v>
@@ -3812,7 +4313,7 @@
         <v>218</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="K31" s="44" t="s">
         <v>217</v>
@@ -3823,7 +4324,7 @@
       <c r="M31" s="45"/>
       <c r="N31" s="45"/>
       <c r="O31" s="46" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="P31" s="54" t="s">
         <v>242</v>
@@ -3838,7 +4339,7 @@
         <v>240</v>
       </c>
       <c r="T31" s="50" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="U31" s="48" t="s">
         <v>241</v>
@@ -3862,7 +4363,7 @@
       </c>
       <c r="F32" s="51"/>
       <c r="G32" s="52" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="H32" s="32">
         <v>30</v>
@@ -3870,8 +4371,8 @@
       <c r="I32" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J32" s="32" t="s">
-        <v>359</v>
+      <c r="J32" s="82" t="s">
+        <v>376</v>
       </c>
       <c r="K32" s="44" t="s">
         <v>218</v>
@@ -3884,7 +4385,7 @@
         <v>127</v>
       </c>
       <c r="O32" s="46" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="P32" s="54" t="s">
         <v>242</v>
@@ -3899,7 +4400,7 @@
         <v>248</v>
       </c>
       <c r="T32" s="50" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="U32" s="48" t="s">
         <v>250</v>
@@ -3923,7 +4424,7 @@
       </c>
       <c r="F33" s="51"/>
       <c r="G33" s="52" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="H33" s="32">
         <v>31</v>
@@ -3931,8 +4432,8 @@
       <c r="I33" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J33" s="32" t="s">
-        <v>362</v>
+      <c r="J33" s="82" t="s">
+        <v>377</v>
       </c>
       <c r="K33" s="44" t="s">
         <v>217</v>
@@ -3943,7 +4444,7 @@
       <c r="M33" s="45"/>
       <c r="N33" s="45"/>
       <c r="O33" s="46" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="P33" s="54" t="s">
         <v>242</v>
@@ -3958,7 +4459,7 @@
         <v>240</v>
       </c>
       <c r="T33" s="50" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="U33" s="48" t="s">
         <v>241</v>
@@ -3980,7 +4481,7 @@
       </c>
       <c r="F34" s="51"/>
       <c r="G34" s="52" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="H34" s="32">
         <v>32</v>
@@ -3988,8 +4489,8 @@
       <c r="I34" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J34" s="32" t="s">
-        <v>351</v>
+      <c r="J34" s="82" t="s">
+        <v>378</v>
       </c>
       <c r="K34" s="44" t="s">
         <v>218</v>
@@ -4002,7 +4503,7 @@
         <v>129</v>
       </c>
       <c r="O34" s="46" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="P34" s="54" t="s">
         <v>242</v>
@@ -4017,7 +4518,7 @@
         <v>248</v>
       </c>
       <c r="T34" s="50" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="U34" s="48" t="s">
         <v>250</v>
@@ -4039,7 +4540,7 @@
       </c>
       <c r="F35" s="51"/>
       <c r="G35" s="52" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="H35" s="32">
         <v>33</v>
@@ -4048,7 +4549,7 @@
         <v>218</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="K35" s="44" t="s">
         <v>218</v>
@@ -4084,7 +4585,7 @@
       </c>
       <c r="F36" s="51"/>
       <c r="G36" s="52" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="H36" s="32">
         <v>34</v>
@@ -4092,8 +4593,8 @@
       <c r="I36" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J36" s="32" t="s">
-        <v>365</v>
+      <c r="J36" s="82" t="s">
+        <v>379</v>
       </c>
       <c r="K36" s="44" t="s">
         <v>218</v>
@@ -4106,7 +4607,7 @@
         <v>149</v>
       </c>
       <c r="O36" s="46" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
       <c r="P36" s="54" t="s">
         <v>242</v>
@@ -4121,7 +4622,7 @@
         <v>248</v>
       </c>
       <c r="T36" s="50" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="U36" s="48" t="s">
         <v>250</v>
@@ -4141,7 +4642,7 @@
       <c r="E37" s="31"/>
       <c r="F37" s="51"/>
       <c r="G37" s="52" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="H37" s="32">
         <v>35</v>
@@ -4149,8 +4650,8 @@
       <c r="I37" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="J37" s="32" t="s">
-        <v>366</v>
+      <c r="J37" s="82" t="s">
+        <v>380</v>
       </c>
       <c r="K37" s="44" t="s">
         <v>218</v>
@@ -4163,7 +4664,7 @@
         <v>128</v>
       </c>
       <c r="O37" s="46" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="P37" s="54"/>
       <c r="Q37" s="48">
@@ -4176,7 +4677,7 @@
         <v>248</v>
       </c>
       <c r="T37" s="50" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="U37" s="48" t="s">
         <v>250</v>
@@ -5314,6 +5815,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
@@ -5327,12 +5834,6 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A37">
